--- a/12.19_30.xlsx
+++ b/12.19_30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Structural+Materials%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Structural+Materials%22</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>Surfaces and Interfaces, Thin Films</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Materials+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Materials+Engineering%22</t>
+  </si>
+  <si>
+    <t>Materials Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源：Sprnger Link   位置：2014-2019 </t>
+  </si>
+  <si>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Spectroscopy+and+Microscopy%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Spectroscopy+and+Microscopy%22</t>
+  </si>
+  <si>
+    <t>Spectroscopy and Microscopy</t>
   </si>
 </sst>
 </file>
@@ -231,6 +246,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -240,29 +353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,83 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,103 +391,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,67 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +582,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,15 +674,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -604,69 +682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,19 +702,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,112 +723,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -825,13 +840,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1190,27 +1205,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="93.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="93.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1">
@@ -1218,7 +1233,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1232,7 +1247,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1246,7 +1261,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="54" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1260,7 +1275,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1274,7 +1289,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="54" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1288,7 +1303,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1302,7 +1317,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1316,7 +1331,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="54" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1330,7 +1345,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1344,7 +1359,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1358,7 +1373,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1372,7 +1387,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1386,7 +1401,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1400,7 +1415,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1414,7 +1429,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1428,7 +1443,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1442,7 +1457,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1456,7 +1471,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1470,7 +1485,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1484,7 +1499,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1498,7 +1513,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1512,7 +1527,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1526,7 +1541,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1540,7 +1555,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1554,7 +1569,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1568,7 +1583,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="67.5" spans="1:4">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1582,7 +1597,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1596,7 +1611,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1610,7 +1625,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1621,6 +1636,34 @@
       </c>
       <c r="D30" s="1">
         <v>192</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1658,6 +1701,8 @@
     <hyperlink ref="A30" r:id="rId28" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Surfaces+and+Interfaces%2C+Thin+Films%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Surfaces+and+Interfaces%2C+Thin+Films%22"/>
     <hyperlink ref="A12" r:id="rId29" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Gastroenterology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Gastroenterology%22"/>
     <hyperlink ref="A1" r:id="rId30" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Structural+Materials%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Structural+Materials%22"/>
+    <hyperlink ref="A31" r:id="rId31" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Materials+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Materials+Engineering%22" tooltip="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Materials+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Materials+Engineering%22"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Spectroscopy+and+Microscopy%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Spectroscopy+and+Microscopy%22" tooltip="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Spectroscopy+and+Microscopy%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Spectroscopy+and+Microscopy%22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
